--- a/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/GroupAvgMinMax.xlsx
+++ b/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/GroupAvgMinMax.xlsx
@@ -29,7 +29,7 @@
     <t>Group-1</t>
   </si>
   <si>
-    <t>6,88</t>
+    <t>6,62</t>
   </si>
   <si>
     <t>2</t>
